--- a/Testdata/LoginPageData.xlsx
+++ b/Testdata/LoginPageData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automationpractise\com.Ecommarce\Testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66D8EDA-690F-4AED-8D2E-E0DAFF3863FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7164E213-5496-4B77-A7BD-8B3374A360A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +58,7 @@
     <t>expected username</t>
   </si>
   <si>
-    <t>SecondAccoun</t>
+    <t>SecondAccount</t>
   </si>
 </sst>
 </file>
@@ -402,7 +398,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
